--- a/history.xlsx
+++ b/history.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="109">
   <si>
     <t>close</t>
   </si>
@@ -224,9 +224,6 @@
   </si>
   <si>
     <t>2024-02-17 16:45:00</t>
-  </si>
-  <si>
-    <t>2024-02-17 17:00:00</t>
   </si>
   <si>
     <t>2024-02-17 17:15:00</t>
@@ -350,13 +347,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="dd/mm/yyyy\ hh:mm"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -367,13 +365,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -841,28 +832,31 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -871,126 +865,124 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1339,13 +1331,15 @@
   <sheetPr/>
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="K61" sqref="K61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="6" max="6" width="18.4444444444444" customWidth="1"/>
+    <col min="6" max="6" width="23.4444444444444" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11">
@@ -3461,8 +3455,8 @@
       <c r="E61">
         <v>51728</v>
       </c>
-      <c r="F61" t="s">
-        <v>70</v>
+      <c r="F61" s="2">
+        <v>45339.7083333333</v>
       </c>
       <c r="G61">
         <v>14343</v>
@@ -3497,7 +3491,7 @@
         <v>51752</v>
       </c>
       <c r="F62" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G62">
         <v>12980</v>
@@ -3532,7 +3526,7 @@
         <v>51703.5</v>
       </c>
       <c r="F63" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G63">
         <v>5285</v>
@@ -3567,7 +3561,7 @@
         <v>51661</v>
       </c>
       <c r="F64" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G64">
         <v>11410</v>
@@ -3602,7 +3596,7 @@
         <v>51650.5</v>
       </c>
       <c r="F65" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G65">
         <v>9883</v>
@@ -3637,7 +3631,7 @@
         <v>51635.5</v>
       </c>
       <c r="F66" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G66">
         <v>8115</v>
@@ -3672,7 +3666,7 @@
         <v>51743</v>
       </c>
       <c r="F67" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G67">
         <v>8304</v>
@@ -3707,7 +3701,7 @@
         <v>51580.5</v>
       </c>
       <c r="F68" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G68">
         <v>33748</v>
@@ -3742,7 +3736,7 @@
         <v>51401.5</v>
       </c>
       <c r="F69" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G69">
         <v>59709</v>
@@ -3777,7 +3771,7 @@
         <v>51264.5</v>
       </c>
       <c r="F70" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G70">
         <v>19778</v>
@@ -3812,7 +3806,7 @@
         <v>51173</v>
       </c>
       <c r="F71" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G71">
         <v>8840</v>
@@ -3847,7 +3841,7 @@
         <v>51216.5</v>
       </c>
       <c r="F72" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G72">
         <v>14701</v>
@@ -3882,7 +3876,7 @@
         <v>51215.5</v>
       </c>
       <c r="F73" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G73">
         <v>66220</v>
@@ -3917,7 +3911,7 @@
         <v>50759</v>
       </c>
       <c r="F74" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G74">
         <v>23876</v>
@@ -3952,7 +3946,7 @@
         <v>50855.5</v>
       </c>
       <c r="F75" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G75">
         <v>17937</v>
@@ -3987,7 +3981,7 @@
         <v>50776</v>
       </c>
       <c r="F76" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G76">
         <v>21201</v>
@@ -4022,7 +4016,7 @@
         <v>50997.5</v>
       </c>
       <c r="F77" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G77">
         <v>27271</v>
@@ -4057,7 +4051,7 @@
         <v>51046.5</v>
       </c>
       <c r="F78" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G78">
         <v>11515</v>
@@ -4092,7 +4086,7 @@
         <v>50995.5</v>
       </c>
       <c r="F79" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G79">
         <v>14141</v>
@@ -4127,7 +4121,7 @@
         <v>50844.5</v>
       </c>
       <c r="F80" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G80">
         <v>12970</v>
@@ -4162,7 +4156,7 @@
         <v>50843.5</v>
       </c>
       <c r="F81" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G81">
         <v>10233</v>
@@ -4197,7 +4191,7 @@
         <v>50918.5</v>
       </c>
       <c r="F82" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G82">
         <v>12770</v>
@@ -4232,7 +4226,7 @@
         <v>50981</v>
       </c>
       <c r="F83" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G83">
         <v>20946</v>
@@ -4267,7 +4261,7 @@
         <v>51160.5</v>
       </c>
       <c r="F84" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G84">
         <v>11219</v>
@@ -4302,7 +4296,7 @@
         <v>51097.5</v>
       </c>
       <c r="F85" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G85">
         <v>9289</v>
@@ -4337,7 +4331,7 @@
         <v>51197.5</v>
       </c>
       <c r="F86" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G86">
         <v>11917</v>
@@ -4372,7 +4366,7 @@
         <v>51232</v>
       </c>
       <c r="F87" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G87">
         <v>5803</v>
@@ -4407,7 +4401,7 @@
         <v>51207</v>
       </c>
       <c r="F88" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G88">
         <v>4249</v>
@@ -4442,7 +4436,7 @@
         <v>51283.5</v>
       </c>
       <c r="F89" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G89">
         <v>7232</v>
@@ -4477,7 +4471,7 @@
         <v>51265</v>
       </c>
       <c r="F90" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G90">
         <v>6006</v>
@@ -4512,7 +4506,7 @@
         <v>51283</v>
       </c>
       <c r="F91" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G91">
         <v>3807</v>
@@ -4547,7 +4541,7 @@
         <v>51320.5</v>
       </c>
       <c r="F92" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G92">
         <v>14661</v>
@@ -4582,7 +4576,7 @@
         <v>51428.5</v>
       </c>
       <c r="F93" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G93">
         <v>4991</v>
@@ -4617,7 +4611,7 @@
         <v>51422</v>
       </c>
       <c r="F94" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G94">
         <v>3811</v>
@@ -4652,7 +4646,7 @@
         <v>51415.5</v>
       </c>
       <c r="F95" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G95">
         <v>4523</v>
@@ -4687,7 +4681,7 @@
         <v>51357.5</v>
       </c>
       <c r="F96" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G96">
         <v>5686</v>
@@ -4722,7 +4716,7 @@
         <v>51392.5</v>
       </c>
       <c r="F97" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G97">
         <v>6178</v>
@@ -4757,7 +4751,7 @@
         <v>51447</v>
       </c>
       <c r="F98" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G98">
         <v>9250</v>
@@ -4792,7 +4786,7 @@
         <v>51516.5</v>
       </c>
       <c r="F99" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G99">
         <v>3048</v>
@@ -4827,7 +4821,7 @@
         <v>51484</v>
       </c>
       <c r="F100" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G100">
         <v>25573</v>
